--- a/data/input/absenteeism_data_27.xlsx
+++ b/data/input/absenteeism_data_27.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23767</v>
+        <v>6756</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paulo Pinto</t>
+          <t>Otávio das Neves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -494,143 +494,143 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45091</v>
       </c>
       <c r="G2" t="n">
-        <v>3376.59</v>
+        <v>5870.18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73215</v>
+        <v>56463</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caio Silva</t>
+          <t>Gustavo Pires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45094</v>
+        <v>45092</v>
       </c>
       <c r="G3" t="n">
-        <v>6376.37</v>
+        <v>4022.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>69601</v>
+        <v>68166</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Henrique Costa</t>
+          <t>Murilo Pereira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45098</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="n">
-        <v>3764.24</v>
+        <v>4290.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5428</v>
+        <v>11295</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Luiz Henrique Rezende</t>
+          <t>Laura Sales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45094</v>
+        <v>45082</v>
       </c>
       <c r="G5" t="n">
-        <v>11529.19</v>
+        <v>9214.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>27435</v>
+        <v>94858</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Benício Nogueira</t>
+          <t>Maria Julia Lima</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>7186.06</v>
+        <v>6499.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>27897</v>
+        <v>51018</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ana Nogueira</t>
+          <t>Dr. Ian da Paz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,80 +639,80 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45089</v>
+        <v>45099</v>
       </c>
       <c r="G7" t="n">
-        <v>11211.77</v>
+        <v>2559.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15784</v>
+        <v>58342</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marina Nogueira</t>
+          <t>Isabelly da Mota</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>11921.97</v>
+        <v>11143.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>69625</v>
+        <v>22235</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alana da Rocha</t>
+          <t>Rafaela Martins</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45080</v>
       </c>
       <c r="G9" t="n">
-        <v>12309.06</v>
+        <v>9790.139999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20697</v>
+        <v>72345</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vitor Gabriel Melo</t>
+          <t>Srta. Lavínia Vieira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45093</v>
       </c>
       <c r="G10" t="n">
-        <v>7230.78</v>
+        <v>6499.95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>19909</v>
+        <v>142</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marcela Castro</t>
+          <t>Danilo Pires</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>4695.45</v>
+        <v>10748.58</v>
       </c>
     </row>
   </sheetData>
